--- a/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/GuoTai_C.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/GuoTai_C.xlsx
@@ -7,14 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="交割单--国泰信用" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,7 +363,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
